--- a/13823.xlsx
+++ b/13823.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k1l77\Desktop\АвтОбрЕЯ SuperPowerTeam3000\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC974329-4820-46D9-8AFB-731541EADF40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="6150" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="13823" sheetId="1" r:id="rId3"/>
+    <sheet name="13823" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -835,59 +844,367 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L182"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166:XFD166"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,24 +1215,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -933,7 +1250,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>11</v>
@@ -945,9 +1262,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -965,7 +1282,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>14</v>
@@ -977,9 +1294,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
@@ -994,7 +1311,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>18</v>
@@ -1006,9 +1323,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
@@ -1026,7 +1343,7 @@
         <v>21</v>
       </c>
       <c r="G8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>22</v>
@@ -1038,9 +1355,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -1055,7 +1372,7 @@
         <v>9</v>
       </c>
       <c r="F9" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>18</v>
@@ -1067,9 +1384,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
@@ -1087,7 +1404,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>26</v>
@@ -1099,19 +1416,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>29</v>
@@ -1129,7 +1446,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>32</v>
@@ -1141,9 +1458,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>33</v>
@@ -1161,7 +1478,7 @@
         <v>36</v>
       </c>
       <c r="G15" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>37</v>
@@ -1173,9 +1490,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>38</v>
@@ -1193,7 +1510,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>14</v>
@@ -1205,9 +1522,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>39</v>
@@ -1225,7 +1542,7 @@
         <v>42</v>
       </c>
       <c r="G17" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>43</v>
@@ -1237,9 +1554,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>44</v>
@@ -1257,7 +1574,7 @@
         <v>46</v>
       </c>
       <c r="G18" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>47</v>
@@ -1269,9 +1586,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>48</v>
@@ -1289,7 +1606,7 @@
         <v>51</v>
       </c>
       <c r="G19" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>52</v>
@@ -1301,9 +1618,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>53</v>
@@ -1321,7 +1638,7 @@
         <v>55</v>
       </c>
       <c r="G20" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>56</v>
@@ -1333,9 +1650,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>57</v>
@@ -1353,7 +1670,7 @@
         <v>58</v>
       </c>
       <c r="G21" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>22</v>
@@ -1365,9 +1682,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>59</v>
@@ -1385,7 +1702,7 @@
         <v>9</v>
       </c>
       <c r="G22" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>18</v>
@@ -1397,9 +1714,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>60</v>
@@ -1417,7 +1734,7 @@
         <v>58</v>
       </c>
       <c r="G23" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>61</v>
@@ -1429,15 +1746,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C24" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>62</v>
@@ -1449,7 +1766,7 @@
         <v>9</v>
       </c>
       <c r="G24" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>63</v>
@@ -1461,9 +1778,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>64</v>
@@ -1481,7 +1798,7 @@
         <v>66</v>
       </c>
       <c r="G25" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>67</v>
@@ -1493,9 +1810,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>68</v>
@@ -1513,7 +1830,7 @@
         <v>9</v>
       </c>
       <c r="G26" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>18</v>
@@ -1525,9 +1842,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>69</v>
@@ -1545,7 +1862,7 @@
         <v>9</v>
       </c>
       <c r="G27" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>71</v>
@@ -1557,9 +1874,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>72</v>
@@ -1577,7 +1894,7 @@
         <v>73</v>
       </c>
       <c r="G28" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>32</v>
@@ -1589,9 +1906,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>74</v>
@@ -1609,7 +1926,7 @@
         <v>73</v>
       </c>
       <c r="G29" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>75</v>
@@ -1621,9 +1938,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>76</v>
@@ -1641,7 +1958,7 @@
         <v>66</v>
       </c>
       <c r="G30" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>22</v>
@@ -1653,9 +1970,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>78</v>
@@ -1673,7 +1990,7 @@
         <v>9</v>
       </c>
       <c r="G31" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>18</v>
@@ -1685,9 +2002,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>79</v>
@@ -1705,7 +2022,7 @@
         <v>9</v>
       </c>
       <c r="G32" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>32</v>
@@ -1717,9 +2034,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>80</v>
@@ -1737,7 +2054,7 @@
         <v>9</v>
       </c>
       <c r="G33" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>81</v>
@@ -1749,9 +2066,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>82</v>
@@ -1769,7 +2086,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>11</v>
@@ -1781,9 +2098,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>84</v>
@@ -1801,7 +2118,7 @@
         <v>87</v>
       </c>
       <c r="G35" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>88</v>
@@ -1813,19 +2130,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>91</v>
@@ -1843,7 +2160,7 @@
         <v>94</v>
       </c>
       <c r="G39" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>26</v>
@@ -1855,9 +2172,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>95</v>
@@ -1875,7 +2192,7 @@
         <v>97</v>
       </c>
       <c r="G40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>11</v>
@@ -1887,9 +2204,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>98</v>
@@ -1907,7 +2224,7 @@
         <v>99</v>
       </c>
       <c r="G41" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>100</v>
@@ -1919,9 +2236,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>101</v>
@@ -1939,7 +2256,7 @@
         <v>9</v>
       </c>
       <c r="G42" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>18</v>
@@ -1951,9 +2268,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>102</v>
@@ -1971,7 +2288,7 @@
         <v>104</v>
       </c>
       <c r="G43" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>56</v>
@@ -1983,9 +2300,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>105</v>
@@ -2003,7 +2320,7 @@
         <v>104</v>
       </c>
       <c r="G44" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>56</v>
@@ -2015,9 +2332,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>107</v>
@@ -2035,7 +2352,7 @@
         <v>108</v>
       </c>
       <c r="G45" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>109</v>
@@ -2047,9 +2364,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>78</v>
@@ -2067,7 +2384,7 @@
         <v>9</v>
       </c>
       <c r="G46" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>18</v>
@@ -2079,9 +2396,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>110</v>
@@ -2099,7 +2416,7 @@
         <v>112</v>
       </c>
       <c r="G47" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>75</v>
@@ -2111,9 +2428,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>113</v>
@@ -2131,7 +2448,7 @@
         <v>9</v>
       </c>
       <c r="G48" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>14</v>
@@ -2143,9 +2460,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>114</v>
@@ -2163,7 +2480,7 @@
         <v>116</v>
       </c>
       <c r="G49" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>22</v>
@@ -2175,9 +2492,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>69</v>
@@ -2195,7 +2512,7 @@
         <v>9</v>
       </c>
       <c r="G50" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>71</v>
@@ -2207,9 +2524,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>117</v>
@@ -2227,7 +2544,7 @@
         <v>119</v>
       </c>
       <c r="G51" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>75</v>
@@ -2239,9 +2556,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>120</v>
@@ -2259,7 +2576,7 @@
         <v>121</v>
       </c>
       <c r="G52" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>26</v>
@@ -2271,9 +2588,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>122</v>
@@ -2291,7 +2608,7 @@
         <v>9</v>
       </c>
       <c r="G53" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>18</v>
@@ -2303,19 +2620,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>122</v>
@@ -2333,7 +2650,7 @@
         <v>9</v>
       </c>
       <c r="G57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>11</v>
@@ -2345,19 +2662,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>122</v>
@@ -2375,7 +2692,7 @@
         <v>9</v>
       </c>
       <c r="G61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>11</v>
@@ -2387,19 +2704,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>128</v>
@@ -2417,7 +2734,7 @@
         <v>9</v>
       </c>
       <c r="G65" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>14</v>
@@ -2429,15 +2746,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B66" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C66" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>62</v>
@@ -2449,7 +2766,7 @@
         <v>9</v>
       </c>
       <c r="G66" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>63</v>
@@ -2461,9 +2778,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>130</v>
@@ -2481,7 +2798,7 @@
         <v>132</v>
       </c>
       <c r="G67" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>22</v>
@@ -2493,9 +2810,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>133</v>
@@ -2513,7 +2830,7 @@
         <v>119</v>
       </c>
       <c r="G68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>11</v>
@@ -2525,9 +2842,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>135</v>
@@ -2545,7 +2862,7 @@
         <v>108</v>
       </c>
       <c r="G69" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>100</v>
@@ -2557,9 +2874,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>78</v>
@@ -2577,7 +2894,7 @@
         <v>9</v>
       </c>
       <c r="G70" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>18</v>
@@ -2589,9 +2906,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>136</v>
@@ -2609,7 +2926,7 @@
         <v>119</v>
       </c>
       <c r="G71" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>75</v>
@@ -2621,9 +2938,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>138</v>
@@ -2641,7 +2958,7 @@
         <v>21</v>
       </c>
       <c r="G72" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>26</v>
@@ -2653,9 +2970,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>69</v>
@@ -2673,7 +2990,7 @@
         <v>9</v>
       </c>
       <c r="G73" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>71</v>
@@ -2685,9 +3002,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>139</v>
@@ -2705,7 +3022,7 @@
         <v>141</v>
       </c>
       <c r="G74" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>75</v>
@@ -2717,9 +3034,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>122</v>
@@ -2737,7 +3054,7 @@
         <v>9</v>
       </c>
       <c r="G75" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>18</v>
@@ -2749,19 +3066,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>122</v>
@@ -2779,7 +3096,7 @@
         <v>9</v>
       </c>
       <c r="G79" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>11</v>
@@ -2791,19 +3108,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>122</v>
@@ -2821,7 +3138,7 @@
         <v>9</v>
       </c>
       <c r="G83" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>11</v>
@@ -2833,19 +3150,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>146</v>
@@ -2863,7 +3180,7 @@
         <v>147</v>
       </c>
       <c r="G87" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>148</v>
@@ -2875,9 +3192,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>149</v>
@@ -2895,7 +3212,7 @@
         <v>9</v>
       </c>
       <c r="G88" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>14</v>
@@ -2907,9 +3224,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>92</v>
@@ -2927,7 +3244,7 @@
         <v>150</v>
       </c>
       <c r="G89" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>100</v>
@@ -2939,9 +3256,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>151</v>
@@ -2959,7 +3276,7 @@
         <v>10</v>
       </c>
       <c r="G90" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>11</v>
@@ -2971,9 +3288,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>153</v>
@@ -2991,7 +3308,7 @@
         <v>9</v>
       </c>
       <c r="G91" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>155</v>
@@ -3003,9 +3320,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>156</v>
@@ -3023,7 +3340,7 @@
         <v>157</v>
       </c>
       <c r="G92" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>158</v>
@@ -3035,9 +3352,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>159</v>
@@ -3055,7 +3372,7 @@
         <v>161</v>
       </c>
       <c r="G93" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>162</v>
@@ -3067,9 +3384,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>163</v>
@@ -3087,7 +3404,7 @@
         <v>73</v>
       </c>
       <c r="G94" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>32</v>
@@ -3099,9 +3416,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>101</v>
@@ -3119,7 +3436,7 @@
         <v>9</v>
       </c>
       <c r="G95" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>18</v>
@@ -3131,9 +3448,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>164</v>
@@ -3151,7 +3468,7 @@
         <v>58</v>
       </c>
       <c r="G96" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>100</v>
@@ -3163,9 +3480,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>48</v>
@@ -3183,7 +3500,7 @@
         <v>51</v>
       </c>
       <c r="G97" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>52</v>
@@ -3195,9 +3512,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>165</v>
@@ -3215,7 +3532,7 @@
         <v>167</v>
       </c>
       <c r="G98" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>61</v>
@@ -3227,9 +3544,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>78</v>
@@ -3247,7 +3564,7 @@
         <v>9</v>
       </c>
       <c r="G99" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>18</v>
@@ -3259,9 +3576,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>168</v>
@@ -3279,7 +3596,7 @@
         <v>73</v>
       </c>
       <c r="G100" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>32</v>
@@ -3291,9 +3608,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>92</v>
@@ -3311,7 +3628,7 @@
         <v>150</v>
       </c>
       <c r="G101" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>100</v>
@@ -3323,9 +3640,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>169</v>
@@ -3343,7 +3660,7 @@
         <v>171</v>
       </c>
       <c r="G102" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>75</v>
@@ -3355,9 +3672,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>78</v>
@@ -3375,7 +3692,7 @@
         <v>9</v>
       </c>
       <c r="G103" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>18</v>
@@ -3387,9 +3704,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>172</v>
@@ -3407,7 +3724,7 @@
         <v>121</v>
       </c>
       <c r="G104" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>100</v>
@@ -3419,9 +3736,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>173</v>
@@ -3439,7 +3756,7 @@
         <v>174</v>
       </c>
       <c r="G105" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>52</v>
@@ -3451,9 +3768,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>175</v>
@@ -3471,7 +3788,7 @@
         <v>177</v>
       </c>
       <c r="G106" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>75</v>
@@ -3486,12 +3803,12 @@
         <v>178</v>
       </c>
       <c r="L106" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>101</v>
@@ -3509,7 +3826,7 @@
         <v>9</v>
       </c>
       <c r="G107" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>18</v>
@@ -3521,9 +3838,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>179</v>
@@ -3541,7 +3858,7 @@
         <v>73</v>
       </c>
       <c r="G108" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>32</v>
@@ -3556,12 +3873,12 @@
         <v>178</v>
       </c>
       <c r="L108" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>180</v>
@@ -3579,7 +3896,7 @@
         <v>182</v>
       </c>
       <c r="G109" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>61</v>
@@ -3594,12 +3911,12 @@
         <v>178</v>
       </c>
       <c r="L109" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>183</v>
@@ -3617,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="G110" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>14</v>
@@ -3629,9 +3946,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>184</v>
@@ -3649,7 +3966,7 @@
         <v>186</v>
       </c>
       <c r="G111" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>43</v>
@@ -3661,9 +3978,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>187</v>
@@ -3681,7 +3998,7 @@
         <v>189</v>
       </c>
       <c r="G112" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>22</v>
@@ -3693,9 +4010,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>78</v>
@@ -3713,7 +4030,7 @@
         <v>9</v>
       </c>
       <c r="G113" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>18</v>
@@ -3725,9 +4042,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>190</v>
@@ -3745,7 +4062,7 @@
         <v>9</v>
       </c>
       <c r="G114" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>14</v>
@@ -3757,9 +4074,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>191</v>
@@ -3777,7 +4094,7 @@
         <v>193</v>
       </c>
       <c r="G115" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>56</v>
@@ -3789,9 +4106,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>194</v>
@@ -3809,7 +4126,7 @@
         <v>196</v>
       </c>
       <c r="G116" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>22</v>
@@ -3821,9 +4138,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>92</v>
@@ -3841,7 +4158,7 @@
         <v>150</v>
       </c>
       <c r="G117" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>100</v>
@@ -3853,9 +4170,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>30</v>
@@ -3873,7 +4190,7 @@
         <v>9</v>
       </c>
       <c r="G118" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>32</v>
@@ -3885,9 +4202,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>197</v>
@@ -3905,7 +4222,7 @@
         <v>10</v>
       </c>
       <c r="G119" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>75</v>
@@ -3917,9 +4234,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>199</v>
@@ -3937,7 +4254,7 @@
         <v>9</v>
       </c>
       <c r="G120" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>155</v>
@@ -3949,9 +4266,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>200</v>
@@ -3969,7 +4286,7 @@
         <v>202</v>
       </c>
       <c r="G121" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>148</v>
@@ -3981,9 +4298,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>203</v>
@@ -4001,7 +4318,7 @@
         <v>121</v>
       </c>
       <c r="G122" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>100</v>
@@ -4013,9 +4330,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>122</v>
@@ -4033,7 +4350,7 @@
         <v>9</v>
       </c>
       <c r="G123" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>18</v>
@@ -4045,9 +4362,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>122</v>
@@ -4065,7 +4382,7 @@
         <v>9</v>
       </c>
       <c r="G124" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>18</v>
@@ -4077,19 +4394,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>122</v>
@@ -4107,7 +4424,7 @@
         <v>9</v>
       </c>
       <c r="G128" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>11</v>
@@ -4119,19 +4436,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>207</v>
@@ -4149,7 +4466,7 @@
         <v>58</v>
       </c>
       <c r="G132" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>100</v>
@@ -4161,9 +4478,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>209</v>
@@ -4181,7 +4498,7 @@
         <v>132</v>
       </c>
       <c r="G133" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>47</v>
@@ -4193,9 +4510,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>78</v>
@@ -4213,7 +4530,7 @@
         <v>9</v>
       </c>
       <c r="G134" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>18</v>
@@ -4225,9 +4542,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>38</v>
@@ -4245,7 +4562,7 @@
         <v>9</v>
       </c>
       <c r="G135" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>14</v>
@@ -4257,9 +4574,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>211</v>
@@ -4277,7 +4594,7 @@
         <v>46</v>
       </c>
       <c r="G136" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>75</v>
@@ -4289,9 +4606,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>78</v>
@@ -4309,7 +4626,7 @@
         <v>9</v>
       </c>
       <c r="G137" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>18</v>
@@ -4321,9 +4638,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>212</v>
@@ -4341,7 +4658,7 @@
         <v>214</v>
       </c>
       <c r="G138" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>11</v>
@@ -4353,9 +4670,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>215</v>
@@ -4373,7 +4690,7 @@
         <v>73</v>
       </c>
       <c r="G139" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>22</v>
@@ -4388,12 +4705,12 @@
         <v>216</v>
       </c>
       <c r="L139" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>217</v>
@@ -4411,7 +4728,7 @@
         <v>219</v>
       </c>
       <c r="G140" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>22</v>
@@ -4426,12 +4743,12 @@
         <v>216</v>
       </c>
       <c r="L140" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>69</v>
@@ -4449,7 +4766,7 @@
         <v>9</v>
       </c>
       <c r="G141" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>71</v>
@@ -4461,9 +4778,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>220</v>
@@ -4481,7 +4798,7 @@
         <v>219</v>
       </c>
       <c r="G142" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>75</v>
@@ -4496,12 +4813,12 @@
         <v>216</v>
       </c>
       <c r="L142" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>101</v>
@@ -4519,7 +4836,7 @@
         <v>9</v>
       </c>
       <c r="G143" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>18</v>
@@ -4531,9 +4848,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>179</v>
@@ -4551,7 +4868,7 @@
         <v>73</v>
       </c>
       <c r="G144" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>32</v>
@@ -4563,9 +4880,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>222</v>
@@ -4583,7 +4900,7 @@
         <v>224</v>
       </c>
       <c r="G145" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>61</v>
@@ -4595,9 +4912,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>225</v>
@@ -4615,7 +4932,7 @@
         <v>227</v>
       </c>
       <c r="G146" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>43</v>
@@ -4627,9 +4944,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>228</v>
@@ -4647,7 +4964,7 @@
         <v>230</v>
       </c>
       <c r="G147" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>88</v>
@@ -4659,9 +4976,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>122</v>
@@ -4679,7 +4996,7 @@
         <v>9</v>
       </c>
       <c r="G148" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>18</v>
@@ -4691,19 +5008,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>233</v>
@@ -4721,7 +5038,7 @@
         <v>9</v>
       </c>
       <c r="G152" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>14</v>
@@ -4733,9 +5050,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>234</v>
@@ -4753,7 +5070,7 @@
         <v>236</v>
       </c>
       <c r="G153" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>47</v>
@@ -4765,9 +5082,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>215</v>
@@ -4785,7 +5102,7 @@
         <v>73</v>
       </c>
       <c r="G154" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>22</v>
@@ -4797,9 +5114,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>237</v>
@@ -4817,7 +5134,7 @@
         <v>239</v>
       </c>
       <c r="G155" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>56</v>
@@ -4829,9 +5146,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>240</v>
@@ -4849,7 +5166,7 @@
         <v>121</v>
       </c>
       <c r="G156" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>100</v>
@@ -4861,9 +5178,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>78</v>
@@ -4881,7 +5198,7 @@
         <v>9</v>
       </c>
       <c r="G157" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>18</v>
@@ -4893,9 +5210,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>241</v>
@@ -4913,7 +5230,7 @@
         <v>239</v>
       </c>
       <c r="G158" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>56</v>
@@ -4928,12 +5245,12 @@
         <v>216</v>
       </c>
       <c r="L158" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>243</v>
@@ -4951,7 +5268,7 @@
         <v>239</v>
       </c>
       <c r="G159" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>56</v>
@@ -4966,12 +5283,12 @@
         <v>216</v>
       </c>
       <c r="L159" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>120</v>
@@ -4989,7 +5306,7 @@
         <v>121</v>
       </c>
       <c r="G160" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>75</v>
@@ -5001,9 +5318,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>78</v>
@@ -5021,7 +5338,7 @@
         <v>9</v>
       </c>
       <c r="G161" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>18</v>
@@ -5033,9 +5350,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>244</v>
@@ -5053,7 +5370,7 @@
         <v>246</v>
       </c>
       <c r="G162" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>56</v>
@@ -5065,9 +5382,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>247</v>
@@ -5085,7 +5402,7 @@
         <v>248</v>
       </c>
       <c r="G163" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>75</v>
@@ -5097,9 +5414,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>69</v>
@@ -5117,7 +5434,7 @@
         <v>9</v>
       </c>
       <c r="G164" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>71</v>
@@ -5129,9 +5446,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>249</v>
@@ -5149,7 +5466,7 @@
         <v>239</v>
       </c>
       <c r="G165" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>56</v>
@@ -5161,15 +5478,15 @@
         <v>9</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="L165" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>251</v>
@@ -5187,7 +5504,7 @@
         <v>121</v>
       </c>
       <c r="G166" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>75</v>
@@ -5199,15 +5516,15 @@
         <v>9</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="L166" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>252</v>
@@ -5225,7 +5542,7 @@
         <v>189</v>
       </c>
       <c r="G167" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>47</v>
@@ -5237,9 +5554,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>254</v>
@@ -5257,7 +5574,7 @@
         <v>9</v>
       </c>
       <c r="G168" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>18</v>
@@ -5269,9 +5586,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>255</v>
@@ -5289,7 +5606,7 @@
         <v>256</v>
       </c>
       <c r="G169" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>88</v>
@@ -5301,9 +5618,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>215</v>
@@ -5321,7 +5638,7 @@
         <v>73</v>
       </c>
       <c r="G170" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>32</v>
@@ -5333,9 +5650,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>79</v>
@@ -5353,7 +5670,7 @@
         <v>121</v>
       </c>
       <c r="G171" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>100</v>
@@ -5365,9 +5682,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>257</v>
@@ -5385,7 +5702,7 @@
         <v>259</v>
       </c>
       <c r="G172" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>11</v>
@@ -5397,9 +5714,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>122</v>
@@ -5417,7 +5734,7 @@
         <v>9</v>
       </c>
       <c r="G173" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>18</v>
@@ -5429,9 +5746,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>260</v>
@@ -5449,7 +5766,7 @@
         <v>121</v>
       </c>
       <c r="G174" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>100</v>
@@ -5461,9 +5778,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>261</v>
@@ -5481,7 +5798,7 @@
         <v>263</v>
       </c>
       <c r="G175" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>43</v>
@@ -5493,9 +5810,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>264</v>
@@ -5513,7 +5830,7 @@
         <v>265</v>
       </c>
       <c r="G176" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>47</v>
@@ -5525,9 +5842,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>254</v>
@@ -5545,7 +5862,7 @@
         <v>9</v>
       </c>
       <c r="G177" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>18</v>
@@ -5557,9 +5874,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>266</v>
@@ -5577,7 +5894,7 @@
         <v>73</v>
       </c>
       <c r="G178" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>32</v>
@@ -5589,9 +5906,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>267</v>
@@ -5609,7 +5926,7 @@
         <v>268</v>
       </c>
       <c r="G179" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>75</v>
@@ -5621,9 +5938,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>38</v>
@@ -5641,7 +5958,7 @@
         <v>9</v>
       </c>
       <c r="G180" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>14</v>
@@ -5653,9 +5970,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>269</v>
@@ -5673,7 +5990,7 @@
         <v>271</v>
       </c>
       <c r="G181" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>22</v>
@@ -5685,9 +6002,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>122</v>
@@ -5705,7 +6022,7 @@
         <v>9</v>
       </c>
       <c r="G182" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>18</v>
@@ -5718,6 +6035,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>